--- a/CSTimetableSpring2015.xlsx
+++ b/CSTimetableSpring2015.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="-15" windowWidth="5760" windowHeight="8145" activeTab="7"/>
+    <workbookView xWindow="9600" yWindow="-15" windowWidth="5760" windowHeight="8145" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="CS-1A" sheetId="5" r:id="rId1"/>
@@ -1221,19 +1221,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1253,6 +1247,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1581,8 +1581,8 @@
   </sheetPr>
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:F8"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1593,53 +1593,53 @@
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
-      <c r="B1" s="109" t="s">
+      <c r="B1" s="107" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="111"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="109"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="111"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="109"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
-      <c r="B3" s="112" t="s">
+      <c r="B3" s="110" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="114"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="112"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
-      <c r="B4" s="109" t="s">
+      <c r="B4" s="107" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="111"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="109"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
@@ -1721,7 +1721,7 @@
       <c r="I7" s="19"/>
     </row>
     <row r="8" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="107" t="s">
+      <c r="A8" s="104" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="92"/>
@@ -1729,23 +1729,23 @@
       <c r="D8" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="104" t="s">
+      <c r="E8" s="106" t="s">
         <v>80</v>
       </c>
-      <c r="F8" s="104"/>
+      <c r="F8" s="106"/>
       <c r="G8" s="98"/>
       <c r="H8" s="102"/>
       <c r="I8" s="100"/>
     </row>
     <row r="9" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="108"/>
+      <c r="A9" s="105"/>
       <c r="B9" s="93"/>
       <c r="C9" s="95"/>
       <c r="D9" s="97"/>
-      <c r="E9" s="105" t="s">
+      <c r="E9" s="113" t="s">
         <v>77</v>
       </c>
-      <c r="F9" s="106"/>
+      <c r="F9" s="114"/>
       <c r="G9" s="99"/>
       <c r="H9" s="103"/>
       <c r="I9" s="101"/>
@@ -1781,14 +1781,14 @@
       <c r="C11" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="D11" s="104" t="s">
+      <c r="D11" s="106" t="s">
         <v>76</v>
       </c>
-      <c r="E11" s="105"/>
-      <c r="F11" s="104" t="s">
+      <c r="E11" s="113"/>
+      <c r="F11" s="106" t="s">
         <v>79</v>
       </c>
-      <c r="G11" s="104"/>
+      <c r="G11" s="106"/>
       <c r="H11" s="15"/>
       <c r="I11" s="17"/>
     </row>
@@ -1813,15 +1813,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="E8:F8"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1835,8 +1835,8 @@
   </sheetPr>
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1859,40 +1859,40 @@
     </row>
     <row r="2" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="111"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="109"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="112" t="s">
+      <c r="B3" s="110" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="114"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="112"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
-      <c r="B4" s="109" t="s">
+      <c r="B4" s="107" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="111"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="109"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
@@ -2073,8 +2073,8 @@
   </sheetPr>
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2097,40 +2097,40 @@
     </row>
     <row r="2" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="111"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="109"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="112" t="s">
+      <c r="B3" s="110" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="114"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="112"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
-      <c r="B4" s="109" t="s">
+      <c r="B4" s="107" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="111"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="109"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
@@ -2219,15 +2219,15 @@
       <c r="C8" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="104" t="s">
+      <c r="D8" s="106" t="s">
         <v>68</v>
       </c>
-      <c r="E8" s="104"/>
+      <c r="E8" s="106"/>
       <c r="F8" s="44"/>
-      <c r="G8" s="104" t="s">
+      <c r="G8" s="106" t="s">
         <v>61</v>
       </c>
-      <c r="H8" s="104"/>
+      <c r="H8" s="106"/>
       <c r="I8" s="59"/>
     </row>
     <row r="9" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2310,7 +2310,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9:G9"/>
+      <selection activeCell="C10" sqref="C10:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2333,40 +2333,40 @@
     </row>
     <row r="2" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="111"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="109"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="112" t="s">
+      <c r="B3" s="110" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="114"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="112"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
-      <c r="B4" s="109" t="s">
+      <c r="B4" s="107" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="111"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="109"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
@@ -2460,10 +2460,10 @@
       <c r="D8" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="104" t="s">
+      <c r="E8" s="106" t="s">
         <v>69</v>
       </c>
-      <c r="F8" s="104"/>
+      <c r="F8" s="106"/>
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
       <c r="I8" s="17"/>
@@ -2496,10 +2496,10 @@
       <c r="B10" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="104" t="s">
+      <c r="C10" s="106" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="104"/>
+      <c r="D10" s="106"/>
       <c r="E10" s="15"/>
       <c r="F10" s="87"/>
       <c r="G10" s="46"/>
@@ -2548,7 +2548,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G8" sqref="G8:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2571,40 +2571,40 @@
     </row>
     <row r="2" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="111"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="109"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="112" t="s">
+      <c r="B3" s="110" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="114"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="112"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
-      <c r="B4" s="109" t="s">
+      <c r="B4" s="107" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="111"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="109"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
@@ -2696,10 +2696,10 @@
         <v>34</v>
       </c>
       <c r="F8" s="15"/>
-      <c r="G8" s="104" t="s">
+      <c r="G8" s="106" t="s">
         <v>78</v>
       </c>
-      <c r="H8" s="104"/>
+      <c r="H8" s="106"/>
       <c r="I8" s="17"/>
     </row>
     <row r="9" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2736,10 +2736,10 @@
         <v>33</v>
       </c>
       <c r="F10" s="23"/>
-      <c r="G10" s="104" t="s">
+      <c r="G10" s="106" t="s">
         <v>41</v>
       </c>
-      <c r="H10" s="104"/>
+      <c r="H10" s="106"/>
       <c r="I10" s="17"/>
     </row>
     <row r="11" spans="1:9" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2785,7 +2785,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" activeCellId="1" sqref="C7 F7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2808,40 +2808,40 @@
     </row>
     <row r="2" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="111"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="109"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="112" t="s">
+      <c r="B3" s="110" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="114"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="112"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
-      <c r="B4" s="109" t="s">
+      <c r="B4" s="107" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="111"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="109"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
@@ -2956,10 +2956,10 @@
       <c r="F9" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="104" t="s">
+      <c r="G9" s="106" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="104"/>
+      <c r="H9" s="106"/>
       <c r="I9" s="17"/>
     </row>
     <row r="10" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3019,10 +3019,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3045,223 +3045,211 @@
     </row>
     <row r="2" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="111"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="109"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="112" t="s">
+      <c r="B3" s="110" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="114"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="112"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="109" t="s">
+      <c r="B4" s="107" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="111"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="109"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="109"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="111"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="10" t="s">
+    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I5" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="25" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+    <row r="6" spans="1:9" s="25" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="68" t="s">
+      <c r="B6" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="69" t="s">
+      <c r="C6" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="68" t="s">
+      <c r="D6" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="68" t="s">
+      <c r="E6" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="68" t="s">
+      <c r="F6" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="68" t="s">
+      <c r="G6" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="68" t="s">
+      <c r="H6" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="68" t="s">
+      <c r="I6" s="68" t="s">
         <v>21</v>
       </c>
     </row>
+    <row r="7" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="74" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="74" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="19"/>
+    </row>
     <row r="8" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="74" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="74" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="19"/>
+      <c r="A8" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="72" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="72" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="72" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="44"/>
+      <c r="G8" s="75"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="17"/>
     </row>
     <row r="9" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="66" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B9" s="71" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="72" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="72" t="s">
-        <v>51</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
       <c r="E9" s="72" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" s="44"/>
-      <c r="G9" s="75"/>
-      <c r="H9" s="76"/>
+        <v>48</v>
+      </c>
+      <c r="F9" s="72" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="77" t="s">
+        <v>71</v>
+      </c>
+      <c r="H9" s="90" t="s">
+        <v>82</v>
+      </c>
       <c r="I9" s="17"/>
     </row>
     <row r="10" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="66" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10" s="71" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="23"/>
+        <v>51</v>
+      </c>
+      <c r="C10" s="15"/>
       <c r="D10" s="23"/>
       <c r="E10" s="72" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="72" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="72" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="72" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" s="17"/>
+    </row>
+    <row r="11" spans="1:9" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="70" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="F10" s="72" t="s">
+      <c r="F11" s="31"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="73" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="77" t="s">
-        <v>71</v>
-      </c>
-      <c r="H10" s="90" t="s">
-        <v>82</v>
-      </c>
-      <c r="I10" s="17"/>
-    </row>
-    <row r="11" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="66" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="71" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="72" t="s">
-        <v>71</v>
-      </c>
-      <c r="F11" s="72" t="s">
-        <v>49</v>
-      </c>
-      <c r="G11" s="72" t="s">
-        <v>49</v>
-      </c>
-      <c r="H11" s="72" t="s">
-        <v>50</v>
-      </c>
-      <c r="I11" s="17"/>
-    </row>
-    <row r="12" spans="1:9" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="70" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="54" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="73" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="31"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="73" t="s">
-        <v>52</v>
-      </c>
-      <c r="I12" s="86" t="s">
+      <c r="I11" s="86" t="s">
         <v>81</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B5:G5"/>
     <mergeCell ref="B4:G4"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3276,8 +3264,8 @@
   </sheetPr>
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3300,40 +3288,40 @@
     </row>
     <row r="2" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="111"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="109"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="112" t="s">
+      <c r="B3" s="110" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="114"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="112"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
-      <c r="B4" s="109" t="s">
+      <c r="B4" s="107" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="111"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="109"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>

--- a/CSTimetableSpring2015.xlsx
+++ b/CSTimetableSpring2015.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="-15" windowWidth="5760" windowHeight="8145" activeTab="6"/>
+    <workbookView xWindow="9600" yWindow="-15" windowWidth="5760" windowHeight="8145" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CS-1A" sheetId="5" r:id="rId1"/>
@@ -193,9 +193,6 @@
 SF-211</t>
   </si>
   <si>
-    <t xml:space="preserve">CS-5 </t>
-  </si>
-  <si>
     <t>CS40X [NLP]
 SF-211</t>
   </si>
@@ -223,9 +220,6 @@
   <si>
     <t>NS104 [BE] L
 SF-217</t>
-  </si>
-  <si>
-    <t>CS 1B [FF-107]</t>
   </si>
   <si>
     <t xml:space="preserve">HU104 [Func English]
@@ -256,9 +250,6 @@
 SF-217</t>
   </si>
   <si>
-    <t>CS1A [FF-107]</t>
-  </si>
-  <si>
     <t>CS305 [SE]
 FF-148</t>
   </si>
@@ -324,6 +315,15 @@
   <si>
     <t>CS210 [OOAD]
 GF-054</t>
+  </si>
+  <si>
+    <t>CS-1A [FF-107]</t>
+  </si>
+  <si>
+    <t>CS-1B [FF-107]</t>
+  </si>
+  <si>
+    <t>CS-5 [FF-150]</t>
   </si>
 </sst>
 </file>
@@ -1221,13 +1221,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1247,12 +1253,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1582,7 +1582,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11:G11"/>
+      <selection activeCell="B4" sqref="B4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1593,53 +1593,53 @@
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
-      <c r="B1" s="107" t="s">
+      <c r="B1" s="109" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="109"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="111"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
-      <c r="B2" s="107" t="s">
+      <c r="B2" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="109"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="111"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
-      <c r="B3" s="110" t="s">
+      <c r="B3" s="112" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="112"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="114"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
-      <c r="B4" s="107" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="109"/>
+      <c r="B4" s="109" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="111"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
@@ -1704,16 +1704,16 @@
         <v>0</v>
       </c>
       <c r="B7" s="49" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C7" s="50" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D7" s="50" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E7" s="50" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F7" s="43"/>
       <c r="G7" s="43"/>
@@ -1721,7 +1721,7 @@
       <c r="I7" s="19"/>
     </row>
     <row r="8" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="104" t="s">
+      <c r="A8" s="107" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="92"/>
@@ -1729,23 +1729,23 @@
       <c r="D8" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="106" t="s">
-        <v>80</v>
-      </c>
-      <c r="F8" s="106"/>
+      <c r="E8" s="104" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" s="104"/>
       <c r="G8" s="98"/>
       <c r="H8" s="102"/>
       <c r="I8" s="100"/>
     </row>
     <row r="9" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="105"/>
+      <c r="A9" s="108"/>
       <c r="B9" s="93"/>
       <c r="C9" s="95"/>
       <c r="D9" s="97"/>
-      <c r="E9" s="113" t="s">
-        <v>77</v>
-      </c>
-      <c r="F9" s="114"/>
+      <c r="E9" s="105" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" s="106"/>
       <c r="G9" s="99"/>
       <c r="H9" s="103"/>
       <c r="I9" s="101"/>
@@ -1755,16 +1755,16 @@
         <v>2</v>
       </c>
       <c r="B10" s="51" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C10" s="52" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D10" s="52" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E10" s="52" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F10" s="44"/>
       <c r="G10" s="44"/>
@@ -1779,16 +1779,16 @@
         <v>29</v>
       </c>
       <c r="C11" s="77" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="104" t="s">
         <v>73</v>
       </c>
-      <c r="D11" s="106" t="s">
+      <c r="E11" s="105"/>
+      <c r="F11" s="104" t="s">
         <v>76</v>
       </c>
-      <c r="E11" s="113"/>
-      <c r="F11" s="106" t="s">
-        <v>79</v>
-      </c>
-      <c r="G11" s="106"/>
+      <c r="G11" s="104"/>
       <c r="H11" s="15"/>
       <c r="I11" s="17"/>
     </row>
@@ -1797,13 +1797,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="54" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C12" s="55" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D12" s="55" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E12" s="48"/>
       <c r="F12" s="48"/>
@@ -1813,15 +1813,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="E8:F8"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1836,7 +1836,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B4" sqref="B4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1859,40 +1859,40 @@
     </row>
     <row r="2" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
-      <c r="B2" s="107" t="s">
+      <c r="B2" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="109"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="111"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="110" t="s">
+      <c r="B3" s="112" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="112"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="114"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
-      <c r="B4" s="107" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="109"/>
+      <c r="B4" s="109" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="111"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
@@ -1960,16 +1960,16 @@
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
       <c r="E7" s="50" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F7" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" s="50" t="s">
         <v>64</v>
-      </c>
-      <c r="G7" s="50" t="s">
-        <v>65</v>
-      </c>
-      <c r="H7" s="50" t="s">
-        <v>66</v>
       </c>
       <c r="I7" s="39"/>
     </row>
@@ -1995,21 +1995,21 @@
         <v>2</v>
       </c>
       <c r="B9" s="120" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C9" s="120"/>
       <c r="D9" s="26"/>
       <c r="E9" s="52" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F9" s="52" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G9" s="77" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H9" s="77" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I9" s="40"/>
     </row>
@@ -2022,13 +2022,13 @@
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
       <c r="F10" s="52" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G10" s="52" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H10" s="52" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I10" s="17"/>
     </row>
@@ -2038,15 +2038,15 @@
       </c>
       <c r="B11" s="41"/>
       <c r="C11" s="119" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D11" s="119"/>
       <c r="E11" s="55" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="118" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H11" s="118"/>
       <c r="I11" s="22"/>
@@ -2073,8 +2073,8 @@
   </sheetPr>
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2097,40 +2097,40 @@
     </row>
     <row r="2" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
-      <c r="B2" s="107" t="s">
+      <c r="B2" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="109"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="111"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="110" t="s">
+      <c r="B3" s="112" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="112"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="114"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
-      <c r="B4" s="107" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="109"/>
+      <c r="B4" s="109" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="111"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
@@ -2219,15 +2219,15 @@
       <c r="C8" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="106" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" s="106"/>
+      <c r="D8" s="104" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="104"/>
       <c r="F8" s="44"/>
-      <c r="G8" s="106" t="s">
-        <v>61</v>
-      </c>
-      <c r="H8" s="106"/>
+      <c r="G8" s="104" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" s="104"/>
       <c r="I8" s="59"/>
     </row>
     <row r="9" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2282,7 +2282,7 @@
       </c>
       <c r="F11" s="48"/>
       <c r="G11" s="120" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H11" s="120"/>
       <c r="I11" s="62"/>
@@ -2333,40 +2333,40 @@
     </row>
     <row r="2" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
-      <c r="B2" s="107" t="s">
+      <c r="B2" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="109"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="111"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="110" t="s">
+      <c r="B3" s="112" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="112"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="114"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
-      <c r="B4" s="107" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="109"/>
+      <c r="B4" s="109" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="111"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
@@ -2460,10 +2460,10 @@
       <c r="D8" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="106" t="s">
-        <v>69</v>
-      </c>
-      <c r="F8" s="106"/>
+      <c r="E8" s="104" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" s="104"/>
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
       <c r="I8" s="17"/>
@@ -2483,7 +2483,7 @@
         <v>26</v>
       </c>
       <c r="F9" s="120" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G9" s="120"/>
       <c r="H9" s="15"/>
@@ -2496,10 +2496,10 @@
       <c r="B10" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="106" t="s">
-        <v>68</v>
-      </c>
-      <c r="D10" s="106"/>
+      <c r="C10" s="104" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="104"/>
       <c r="E10" s="15"/>
       <c r="F10" s="87"/>
       <c r="G10" s="46"/>
@@ -2571,40 +2571,40 @@
     </row>
     <row r="2" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
-      <c r="B2" s="107" t="s">
+      <c r="B2" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="109"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="111"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="110" t="s">
+      <c r="B3" s="112" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="112"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="114"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
-      <c r="B4" s="107" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="109"/>
+      <c r="B4" s="109" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="111"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
@@ -2696,10 +2696,10 @@
         <v>34</v>
       </c>
       <c r="F8" s="15"/>
-      <c r="G8" s="106" t="s">
-        <v>78</v>
-      </c>
-      <c r="H8" s="106"/>
+      <c r="G8" s="104" t="s">
+        <v>75</v>
+      </c>
+      <c r="H8" s="104"/>
       <c r="I8" s="17"/>
     </row>
     <row r="9" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2736,10 +2736,10 @@
         <v>33</v>
       </c>
       <c r="F10" s="23"/>
-      <c r="G10" s="106" t="s">
+      <c r="G10" s="104" t="s">
         <v>41</v>
       </c>
-      <c r="H10" s="106"/>
+      <c r="H10" s="104"/>
       <c r="I10" s="17"/>
     </row>
     <row r="11" spans="1:9" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2808,40 +2808,40 @@
     </row>
     <row r="2" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
-      <c r="B2" s="107" t="s">
+      <c r="B2" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="109"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="111"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="110" t="s">
+      <c r="B3" s="112" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="112"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="114"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
-      <c r="B4" s="107" t="s">
+      <c r="B4" s="109" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="109"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="111"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
@@ -2916,7 +2916,7 @@
       </c>
       <c r="E7" s="43"/>
       <c r="F7" s="91" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G7" s="121" t="s">
         <v>40</v>
@@ -2956,10 +2956,10 @@
       <c r="F9" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="106" t="s">
+      <c r="G9" s="104" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="106"/>
+      <c r="H9" s="104"/>
       <c r="I9" s="17"/>
     </row>
     <row r="10" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3021,8 +3021,8 @@
   </sheetPr>
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3045,40 +3045,40 @@
     </row>
     <row r="2" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
-      <c r="B2" s="107" t="s">
+      <c r="B2" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="109"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="111"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="110" t="s">
+      <c r="B3" s="112" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="112"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="114"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="107" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="109"/>
+      <c r="B4" s="109" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="111"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
@@ -3194,10 +3194,10 @@
         <v>52</v>
       </c>
       <c r="G9" s="77" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H9" s="90" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I9" s="17"/>
     </row>
@@ -3211,7 +3211,7 @@
       <c r="C10" s="15"/>
       <c r="D10" s="23"/>
       <c r="E10" s="72" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F10" s="72" t="s">
         <v>49</v>
@@ -3242,7 +3242,7 @@
         <v>52</v>
       </c>
       <c r="I11" s="86" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -3288,40 +3288,40 @@
     </row>
     <row r="2" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
-      <c r="B2" s="107" t="s">
+      <c r="B2" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="109"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="111"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="110" t="s">
+      <c r="B3" s="112" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="112"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="114"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
-      <c r="B4" s="107" t="s">
+      <c r="B4" s="109" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="109"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="111"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
@@ -3388,17 +3388,17 @@
       <c r="B7" s="20"/>
       <c r="C7" s="43"/>
       <c r="D7" s="74" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E7" s="74" t="s">
         <v>48</v>
       </c>
       <c r="F7" s="18"/>
       <c r="G7" s="79" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H7" s="91" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I7" s="19"/>
     </row>
@@ -3413,12 +3413,12 @@
         <v>50</v>
       </c>
       <c r="D8" s="72" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="23"/>
       <c r="G8" s="72" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H8" s="44"/>
       <c r="I8" s="17"/>
@@ -3429,10 +3429,10 @@
       </c>
       <c r="B9" s="16"/>
       <c r="C9" s="88" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="72" t="s">
         <v>55</v>
-      </c>
-      <c r="D9" s="72" t="s">
-        <v>56</v>
       </c>
       <c r="E9" s="72" t="s">
         <v>48</v>
@@ -3449,13 +3449,13 @@
         <v>3</v>
       </c>
       <c r="B10" s="71" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C10" s="89" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="88" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E10" s="30"/>
       <c r="F10" s="30"/>
@@ -3471,10 +3471,10 @@
       </c>
       <c r="B11" s="42"/>
       <c r="C11" s="73" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D11" s="73" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E11" s="73" t="s">
         <v>48</v>
@@ -3485,7 +3485,7 @@
         <v>52</v>
       </c>
       <c r="I11" s="86" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
